--- a/SMAIG.test.xlsx
+++ b/SMAIG.test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R stuff\smaig-v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D793AD-3B72-4A27-B636-8679BD12DBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE124E1-B8D4-436E-991D-8929CBFFB066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20100" yWindow="2520" windowWidth="16695" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +77,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -958,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1142,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D45">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1332,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>179</v>
+        <v>-180</v>
       </c>
       <c r="C56">
-        <v>179</v>
+        <v>-180</v>
       </c>
       <c r="D56">
-        <v>179</v>
+        <v>-180</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2845,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="B145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2862,7 +2872,7 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2879,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2896,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2913,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B149">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2930,7 +2940,7 @@
         <v>14</v>
       </c>
       <c r="B150">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2947,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="B151">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -2964,7 +2974,7 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -2981,7 +2991,7 @@
         <v>14</v>
       </c>
       <c r="B153">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -2998,7 +3008,7 @@
         <v>14</v>
       </c>
       <c r="B154">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -3205,10 +3215,10 @@
         <v>140</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -3384,20 +3394,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
         <v>16</v>
       </c>
-      <c r="B177">
-        <v>-40</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
+      <c r="B177" s="2">
+        <v>-185</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3500,7 +3510,7 @@
         <v>-3</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -3576,13 +3586,13 @@
         <v>17</v>
       </c>
       <c r="B188">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="E188">
         <v>1</v>
